--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\larp_secure_doors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{471B2991-0164-4026-B7BA-7CA73E4714FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86718E-9856-4ED1-805B-26E719550EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1344" yWindow="-108" windowWidth="21804" windowHeight="13176" xr2:uid="{EE5008F3-9754-4420-B3C3-2E2BF7827494}"/>
   </bookViews>
   <sheets>
-    <sheet name="Door settings" sheetId="1" r:id="rId1"/>
+    <sheet name="Door delays" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -402,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D348B51-9F6A-4BE1-BE3A-FC0A3CBF6F17}">
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -425,8 +425,12 @@
         <f>SUM(B:B)/3600</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="str">
+        <f>C1&amp;","</f>
+        <v>10,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -437,8 +441,12 @@
         <f>B2+C1</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E31" si="0">C2&amp;","</f>
+        <v>20,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -446,11 +454,15 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C31" si="0">B3+C2</f>
+        <f t="shared" ref="C3:C31" si="1">B3+C2</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>30,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -458,11 +470,15 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>60,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -470,11 +486,15 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>90,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -482,11 +502,15 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>120,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -494,11 +518,15 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>150,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -506,11 +534,15 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>180,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -518,11 +550,15 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>210,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -530,11 +566,15 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>240,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -542,11 +582,15 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>270,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -554,11 +598,15 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>300,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -566,11 +614,15 @@
         <v>60</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>360,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -578,11 +630,15 @@
         <v>60</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>420,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -590,11 +646,15 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>480,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -602,11 +662,15 @@
         <v>60</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>540,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -614,11 +678,15 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>600,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -626,11 +694,15 @@
         <v>60</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>660,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -638,11 +710,15 @@
         <v>60</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>720,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -650,11 +726,15 @@
         <v>60</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>780</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>780,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -662,11 +742,15 @@
         <v>60</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>840,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -674,11 +758,15 @@
         <v>60</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>900,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -686,11 +774,15 @@
         <v>300</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>1200,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -698,11 +790,15 @@
         <v>300</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>1500,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -710,11 +806,15 @@
         <v>300</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>1800,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -722,11 +822,15 @@
         <v>300</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>2100,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -734,11 +838,15 @@
         <v>300</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>2400,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -746,11 +854,15 @@
         <v>300</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>2700,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -758,11 +870,15 @@
         <v>300</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>3000,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -770,11 +886,15 @@
         <v>300</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>3300,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -782,11 +902,15 @@
         <v>300</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>3600,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\larp_secure_doors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86718E-9856-4ED1-805B-26E719550EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74317C3D-BDEE-48B0-8EC2-A056CDD49F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="-108" windowWidth="21804" windowHeight="13176" xr2:uid="{EE5008F3-9754-4420-B3C3-2E2BF7827494}"/>
+    <workbookView xWindow="1344" yWindow="-108" windowWidth="21804" windowHeight="13176" activeTab="1" xr2:uid="{EE5008F3-9754-4420-B3C3-2E2BF7827494}"/>
   </bookViews>
   <sheets>
     <sheet name="Door delays" sheetId="1" r:id="rId1"/>
+    <sheet name="Pins" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,147 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Евгений Рожков</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{138D25A0-B7C6-42E6-B0B3-F43B037CBC47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Евгений Рожков:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Beyound MVP</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Code lock</t>
+  </si>
+  <si>
+    <t>Button lock</t>
+  </si>
+  <si>
+    <t>RFID lock</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Open button</t>
+  </si>
+  <si>
+    <t>Close button</t>
+  </si>
+  <si>
+    <t>I2C SDA</t>
+  </si>
+  <si>
+    <t>I2C SCL</t>
+  </si>
+  <si>
+    <t>Digital keyboard</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>RFID SS</t>
+  </si>
+  <si>
+    <t>RFID RST</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +184,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D348B51-9F6A-4BE1-BE3A-FC0A3CBF6F17}">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2038,4 +2216,267 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3C7458-B055-4B65-ACDE-D7349D1EF8F7}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="5" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\larp_secure_doors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74317C3D-BDEE-48B0-8EC2-A056CDD49F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCFFE6C-FFE0-4C3F-8F76-E637C25DE57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1344" yWindow="-108" windowWidth="21804" windowHeight="13176" activeTab="1" xr2:uid="{EE5008F3-9754-4420-B3C3-2E2BF7827494}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Pin</t>
   </si>
@@ -163,13 +163,19 @@
     <t>Settings</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>RFID SS</t>
   </si>
   <si>
     <t>RFID RST</t>
+  </si>
+  <si>
+    <t>R-pin</t>
+  </si>
+  <si>
+    <t>G-pin</t>
+  </si>
+  <si>
+    <t>B-pin</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2229,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2260,7 +2266,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2274,7 +2280,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2297,6 +2303,9 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
@@ -2305,6 +2314,9 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\larp_secure_doors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCFFE6C-FFE0-4C3F-8F76-E637C25DE57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC1711E-CE7B-466F-91E6-F3B4E3C19F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="-108" windowWidth="21804" windowHeight="13176" activeTab="1" xr2:uid="{EE5008F3-9754-4420-B3C3-2E2BF7827494}"/>
+    <workbookView xWindow="1344" yWindow="-108" windowWidth="21804" windowHeight="13176" activeTab="2" xr2:uid="{EE5008F3-9754-4420-B3C3-2E2BF7827494}"/>
   </bookViews>
   <sheets>
     <sheet name="Door delays" sheetId="1" r:id="rId1"/>
     <sheet name="Pins" sheetId="2" r:id="rId2"/>
+    <sheet name="Connectors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Pin</t>
   </si>
@@ -176,6 +178,33 @@
   </si>
   <si>
     <t>B-pin</t>
+  </si>
+  <si>
+    <t>MC interchange</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>+5V</t>
+  </si>
+  <si>
+    <t>LED strip</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Don't ask :D</t>
+  </si>
+  <si>
+    <t>Keypad</t>
   </si>
 </sst>
 </file>
@@ -218,7 +247,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +257,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,13 +291,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,12 +647,12 @@
   <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -614,7 +672,7 @@
         <v>10,</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -630,7 +688,7 @@
         <v>20,</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -646,7 +704,7 @@
         <v>30,</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -662,7 +720,7 @@
         <v>60,</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -678,7 +736,7 @@
         <v>90,</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -694,7 +752,7 @@
         <v>120,</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -710,7 +768,7 @@
         <v>150,</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -726,7 +784,7 @@
         <v>180,</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -742,7 +800,7 @@
         <v>210,</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -758,7 +816,7 @@
         <v>240,</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -774,7 +832,7 @@
         <v>270,</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -790,7 +848,7 @@
         <v>300,</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -806,7 +864,7 @@
         <v>360,</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -822,7 +880,7 @@
         <v>420,</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -838,7 +896,7 @@
         <v>480,</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -854,7 +912,7 @@
         <v>540,</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -870,7 +928,7 @@
         <v>600,</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -886,7 +944,7 @@
         <v>660,</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -902,7 +960,7 @@
         <v>720,</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -918,7 +976,7 @@
         <v>780,</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -934,7 +992,7 @@
         <v>840,</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -950,7 +1008,7 @@
         <v>900,</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -966,7 +1024,7 @@
         <v>1200,</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -982,7 +1040,7 @@
         <v>1500,</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -998,7 +1056,7 @@
         <v>1800,</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1014,7 +1072,7 @@
         <v>2100,</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1030,7 +1088,7 @@
         <v>2400,</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1046,7 +1104,7 @@
         <v>2700,</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1062,7 +1120,7 @@
         <v>3000,</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1078,7 +1136,7 @@
         <v>3300,</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1094,1127 +1152,1127 @@
         <v>3600,</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>256</v>
       </c>
@@ -2228,17 +2286,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3C7458-B055-4B65-ACDE-D7349D1EF8F7}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="5" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2283,7 +2341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2291,7 +2349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2299,7 +2357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2310,7 +2368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2321,7 +2379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2332,7 +2390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2346,7 +2404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2360,7 +2418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2374,7 +2432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2388,13 +2446,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -2402,13 +2457,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
@@ -2416,13 +2468,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -2430,13 +2479,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -2444,7 +2490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2452,24 +2498,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2491,4 +2537,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87544512-061F-4079-A008-0982B3954E4A}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="8">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>